--- a/reuslt/task3.xlsx
+++ b/reuslt/task3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="975" yWindow="0" windowWidth="21090" windowHeight="9990"/>
+    <workbookView xWindow="4875" yWindow="0" windowWidth="21090" windowHeight="9990"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>kmean 300</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -37,13 +37,29 @@
     <t>Regularization Coefficient</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>kmean 100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kmean 280</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kmean 200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kmean 240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="0.0E+00"/>
+    <numFmt numFmtId="176" formatCode="0.0E+00"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -62,12 +78,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -84,11 +106,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -232,7 +257,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$C$1</c:f>
+              <c:f>工作表1!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -288,33 +313,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$C$2:$C$9</c:f>
+              <c:f>工作表1!$D$2:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.23333000000000001</c:v>
+                  <c:v>0.25333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.22</c:v>
+                  <c:v>0.26</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.30667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.39333000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.31333</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.31333</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.34666999999999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.35332999999999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.28000000000000003</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.26667000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -323,6 +348,72 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-8E86-44E4-8263-45D1D02B31B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>kmean 200</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$F$2:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.30667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.29332999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D5DE-435A-BA57-341E785C515D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -450,6 +541,8 @@
         <c:axId val="73970256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.5"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1196,16 +1289,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>509587</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>195262</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>52387</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>423862</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1490,10 +1583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1501,7 +1594,7 @@
     <col min="1" max="1" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1509,10 +1602,22 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>9.9999999999999995E-8</v>
       </c>
@@ -1520,10 +1625,22 @@
         <v>0.23333000000000001</v>
       </c>
       <c r="C2">
-        <v>0.23333000000000001</v>
+        <v>0.27333000000000002</v>
+      </c>
+      <c r="D2">
+        <v>0.25333</v>
+      </c>
+      <c r="E2">
+        <v>0.20666999999999999</v>
+      </c>
+      <c r="F2">
+        <v>0.3</v>
+      </c>
+      <c r="G2">
+        <v>0.30667</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>9.9999999999999995E-7</v>
       </c>
@@ -1531,10 +1648,22 @@
         <v>0.24</v>
       </c>
       <c r="C3">
-        <v>0.22</v>
+        <v>0.26</v>
+      </c>
+      <c r="D3">
+        <v>0.26</v>
+      </c>
+      <c r="E3">
+        <v>0.23333000000000001</v>
+      </c>
+      <c r="F3">
+        <v>0.30667</v>
+      </c>
+      <c r="G3">
+        <v>0.30667</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
@@ -1542,10 +1671,22 @@
         <v>0.23333000000000001</v>
       </c>
       <c r="C4">
-        <v>0.3</v>
+        <v>0.32</v>
+      </c>
+      <c r="D4">
+        <v>0.30667</v>
+      </c>
+      <c r="E4">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F4">
+        <v>0.29332999999999998</v>
+      </c>
+      <c r="G4">
+        <v>0.28666999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1E-4</v>
       </c>
@@ -1553,10 +1694,22 @@
         <v>0.30667</v>
       </c>
       <c r="C5">
-        <v>0.31333</v>
+        <v>0.32</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.39333000000000001</v>
+      </c>
+      <c r="E5">
+        <v>0.30667</v>
+      </c>
+      <c r="F5">
+        <v>0.30667</v>
+      </c>
+      <c r="G5">
+        <v>0.26667000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1E-3</v>
       </c>
@@ -1566,8 +1719,20 @@
       <c r="C6">
         <v>0.34666999999999998</v>
       </c>
+      <c r="D6">
+        <v>0.36</v>
+      </c>
+      <c r="E6">
+        <v>0.33333000000000002</v>
+      </c>
+      <c r="F6">
+        <v>0.36</v>
+      </c>
+      <c r="G6">
+        <v>0.32</v>
+      </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>0.01</v>
       </c>
@@ -1575,10 +1740,22 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="C7">
-        <v>0.35332999999999998</v>
+        <v>0.29332999999999998</v>
+      </c>
+      <c r="D7">
+        <v>0.26</v>
+      </c>
+      <c r="E7">
+        <v>0.32667000000000002</v>
+      </c>
+      <c r="F7">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G7">
+        <v>0.25333</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>0.1</v>
       </c>
@@ -1586,10 +1763,22 @@
         <v>0.3</v>
       </c>
       <c r="C8">
-        <v>0.28000000000000003</v>
+        <v>0.31333</v>
+      </c>
+      <c r="D8">
+        <v>0.31333</v>
+      </c>
+      <c r="E8">
+        <v>0.32</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="G8">
+        <v>0.3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -1598,6 +1787,18 @@
       </c>
       <c r="C9">
         <v>0.26667000000000002</v>
+      </c>
+      <c r="D9">
+        <v>0.3</v>
+      </c>
+      <c r="E9">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F9">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G9">
+        <v>0.26</v>
       </c>
     </row>
   </sheetData>
